--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2434.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2434.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.021118673190964</v>
+        <v>1.419217109680176</v>
       </c>
       <c r="B1">
-        <v>2.076907677606082</v>
+        <v>2.793301582336426</v>
       </c>
       <c r="C1">
-        <v>8.947877454394906</v>
+        <v>3.000523805618286</v>
       </c>
       <c r="D1">
-        <v>2.526795218016829</v>
+        <v>3.604333400726318</v>
       </c>
       <c r="E1">
-        <v>0.9926268196788078</v>
+        <v>1.650992870330811</v>
       </c>
     </row>
   </sheetData>
